--- a/2015_coleta_tipos_residuos.xlsx
+++ b/2015_coleta_tipos_residuos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,52 +1425,6 @@
         <v>20.23</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Total Geral</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>497933.44</v>
-      </c>
-      <c r="C22" t="n">
-        <v>446068.57</v>
-      </c>
-      <c r="D22" t="n">
-        <v>511432.27</v>
-      </c>
-      <c r="E22" t="n">
-        <v>472188.08</v>
-      </c>
-      <c r="F22" t="n">
-        <v>466261.26</v>
-      </c>
-      <c r="G22" t="n">
-        <v>467665.36</v>
-      </c>
-      <c r="H22" t="n">
-        <v>469425.38</v>
-      </c>
-      <c r="I22" t="n">
-        <v>467482.48</v>
-      </c>
-      <c r="J22" t="n">
-        <v>467580.68</v>
-      </c>
-      <c r="K22" t="n">
-        <v>487542.6</v>
-      </c>
-      <c r="L22" t="n">
-        <v>474840.68</v>
-      </c>
-      <c r="M22" t="n">
-        <v>522303.56</v>
-      </c>
-      <c r="N22" t="n">
-        <v>5750724.359999998</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
